--- a/database/relatorio/PE 90004-2024/51230979_ROSANGELA_VENTURA_PINTO_NICOLAU/relacao_itens.xlsx
+++ b/database/relatorio/PE 90004-2024/51230979_ROSANGELA_VENTURA_PINTO_NICOLAU/relacao_itens.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,148 +446,233 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Kit de alavanca heidbrink (1,2 e 3). Produzido em aço inox. Registro junto a anvisa.</t>
+          <t>Kit de alavanca heidbrink (1,2 e 3). Produzido em aço inox. Registro junto a anvisa.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 4.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 97.5</t>
+          <t>Marca:  PRATA</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 390.0</t>
+          <t>Modelo:  PRATA</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 4</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 97,50</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 390,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Item: 99 - PINO - USO ODONTOLÓGICO (385429)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Pino - uso odontológico, material fibra de vidro, tipo intra radicular, aplicação núcleo intra radicular, características adicionais dupla conicidade e radiopaco, diâmetro 0,5, componentes 5 pinos dc 0,5 e broca dc</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 5.0</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 50.0</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 250.0</t>
+          <t>Pino - uso odontológico, material fibra de vidro, tipo intra radicular, aplicação núcleo intra radicular, características adicionais dupla conicidade e radiopaco, diâmetro 0,5, componentes 5 pinos dc 0,5 e broca dc</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Item: 100 - PINO - USO ODONTOLÓGICO (385439)</t>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  SYSTHEX</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  SYSPOSTS</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Pino - uso odontológico, material fibra de vidro, tipo intra radicular, aplicação núcleo intra radicular, características adicionais dupla conicidade e radiopaco, diâmetro 1, componentes 5 pinos dc 1,0 e broca dc</t>
+          <t>Quantidade: 5</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 50,00</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 250,00</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 5.0</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 50.0</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 250.0</t>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Item: 100 - PINO - USO ODONTOLÓGICO (385439)</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Item: 101 - PINO - USO ODONTOLÓGICO (385440)</t>
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Pino - uso odontológico, material fibra de vidro, tipo intra radicular, aplicação núcleo intra radicular, características adicionais dupla conicidade e radiopaco, diâmetro 1, componentes 5 pinos dc 1,0 e broca dc</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Pino - uso odontológico, material fibra de vidro, tipo intra radicular, aplicação núcleo intra radicular, características adicionais dupla conicidade e radiopaco, diâmetro 2, componentes 5 pinos dc 2,0 e broca dc</t>
+          <t>UF: Conjunto</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  SYSTHEX</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  SYSPOSTS</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 5.0</t>
+          <t>Quantidade: 5</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 50.0</t>
+          <t>Valor Unitário: R$ 50,00</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 250.0</t>
+          <t>Valor Total: R$ 250,00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Item: 102 - PINO - USO ODONTOLÓGICO (385434)</t>
+          <t>Item: 101 - PINO - USO ODONTOLÓGICO (385440)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Pino - uso odontológico, material fibra de vidro, tipo intra radicular, aplicação núcleo intra radicular, características adicionais dupla conicidade e radiopaco, diâmetro 3, componentes 5 pinos dc 3,0 e broca dc</t>
+          <t>Pino - uso odontológico, material fibra de vidro, tipo intra radicular, aplicação núcleo intra radicular, características adicionais dupla conicidade e radiopaco, diâmetro 2, componentes 5 pinos dc 2,0 e broca dc</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 5.0</t>
+          <t>UF: Conjunto</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 50.0</t>
+          <t>Marca:  SYSTHEX</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 250.0</t>
+          <t>Modelo:  SYSPOSTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 5</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 50,00</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 250,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Item: 102 - PINO - USO ODONTOLÓGICO (385434)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Pino - uso odontológico, material fibra de vidro, tipo intra radicular, aplicação núcleo intra radicular, características adicionais dupla conicidade e radiopaco, diâmetro 3, componentes 5 pinos dc 3,0 e broca dc</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>UF: Conjunto</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  SYSTHEX</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  SYSPOSTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 5</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 50,00</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 250,00</t>
         </is>
       </c>
     </row>
@@ -595,13 +680,13 @@
   <mergeCells count="10">
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A11:C11"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A18:C18"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/database/relatorio/PE 90004-2024/51230979_ROSANGELA_VENTURA_PINTO_NICOLAU/relacao_itens.xlsx
+++ b/database/relatorio/PE 90004-2024/51230979_ROSANGELA_VENTURA_PINTO_NICOLAU/relacao_itens.xlsx
@@ -439,7 +439,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Item: 40 - ALAVANCA ODONTOLÓGICA (473730)</t>
+          <t>Item 40 - ALAVANCA ODONTOLÓGICA (473730)</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Item: 99 - PINO - USO ODONTOLÓGICO (385429)</t>
+          <t>Item 99 - PINO - USO ODONTOLÓGICO (385429)</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Item: 100 - PINO - USO ODONTOLÓGICO (385439)</t>
+          <t>Item 100 - PINO - USO ODONTOLÓGICO (385439)</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Item: 101 - PINO - USO ODONTOLÓGICO (385440)</t>
+          <t>Item 101 - PINO - USO ODONTOLÓGICO (385440)</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Item: 102 - PINO - USO ODONTOLÓGICO (385434)</t>
+          <t>Item 102 - PINO - USO ODONTOLÓGICO (385434)</t>
         </is>
       </c>
     </row>
